--- a/iron_oxo_DDCASPT2/corrr2.xlsx
+++ b/iron_oxo_DDCASPT2/corrr2.xlsx
@@ -458,10 +458,10 @@
         <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6158023558071879</v>
+        <v>0.7647226265679657</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.617134108194197</v>
+        <v>-0.6342146589552582</v>
       </c>
     </row>
     <row r="3">
@@ -472,10 +472,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8180233011760532</v>
+        <v>0.8942452258920228</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4055852730650413</v>
+        <v>-0.1802870795046476</v>
       </c>
     </row>
     <row r="4">
@@ -486,10 +486,10 @@
         <v>150</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8834481997573229</v>
+        <v>0.8986863027387987</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1121425752005186</v>
+        <v>-0.1267011454340481</v>
       </c>
     </row>
     <row r="5">
@@ -500,10 +500,10 @@
         <v>200</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9080390365685965</v>
+        <v>0.9296712738609537</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.07015212939240034</v>
+        <v>0.2905589463664481</v>
       </c>
     </row>
     <row r="6">
@@ -514,10 +514,10 @@
         <v>250</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9090600849142527</v>
+        <v>0.9342735042409847</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3918648315264885</v>
+        <v>0.5388846050980861</v>
       </c>
     </row>
     <row r="7">
@@ -528,10 +528,10 @@
         <v>300</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8958601634540908</v>
+        <v>0.937910776001566</v>
       </c>
       <c r="D7" t="n">
-        <v>0.540164824317751</v>
+        <v>0.5907588673058848</v>
       </c>
     </row>
     <row r="8">
@@ -542,10 +542,10 @@
         <v>350</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9296468995692302</v>
+        <v>0.9277056779399284</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1731437264169431</v>
+        <v>0.7775276633368935</v>
       </c>
     </row>
     <row r="9">
@@ -556,10 +556,10 @@
         <v>400</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9424043622702303</v>
+        <v>0.9393828724157743</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6230318217581916</v>
+        <v>0.7843630478329885</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         <v>450</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9468765653669845</v>
+        <v>0.9449621679634903</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5280356259399455</v>
+        <v>0.716611157894394</v>
       </c>
     </row>
   </sheetData>
